--- a/lookup_tables/dmc_lookup.xlsx
+++ b/lookup_tables/dmc_lookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/730c3f55bdcd2004/prosjekter/cross_stitch_helper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\cross_stitch_helper\lookup_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{6891585E-EDDB-4615-B67A-534C05F944A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63856D3D-CE46-4F8B-9DF4-2B785E265C6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8268D92-E76B-41D2-BABB-0EAB216A35C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0C107F7-9686-4EAC-9210-D7CF3A2E6C11}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="938">
   <si>
     <t>Number</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Blue Green - Medium</t>
   </si>
   <si>
-    <t>504*</t>
-  </si>
-  <si>
     <t>Blue Green - Very Light</t>
   </si>
   <si>
@@ -1268,9 +1265,6 @@
   </si>
   <si>
     <t>Desert Sand - Very Dark</t>
-  </si>
-  <si>
-    <t>3773*</t>
   </si>
   <si>
     <t>Desert Sand - Medium</t>
@@ -20070,8 +20064,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:D662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="F669" sqref="F669"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="H420" sqref="H420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20092,7 +20086,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -20110,7 +20104,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -21812,11 +21806,11 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="1">
+        <v>504</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C134" s="133"/>
       <c r="D134" t="str" cm="1">
@@ -21829,7 +21823,7 @@
         <v>505</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C135" s="134"/>
       <c r="D135" t="str" cm="1">
@@ -21842,7 +21836,7 @@
         <v>517</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136" s="135"/>
       <c r="D136" t="str" cm="1">
@@ -21855,7 +21849,7 @@
         <v>518</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C137" s="136"/>
       <c r="D137" t="str" cm="1">
@@ -21868,7 +21862,7 @@
         <v>519</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138" s="137"/>
       <c r="D138" t="str" cm="1">
@@ -21881,7 +21875,7 @@
         <v>520</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139" s="138"/>
       <c r="D139" t="str" cm="1">
@@ -21894,7 +21888,7 @@
         <v>522</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140" s="139"/>
       <c r="D140" t="str" cm="1">
@@ -21907,7 +21901,7 @@
         <v>523</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141" s="140"/>
       <c r="D141" t="str" cm="1">
@@ -21920,7 +21914,7 @@
         <v>524</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142" s="141"/>
       <c r="D142" t="str" cm="1">
@@ -21933,7 +21927,7 @@
         <v>535</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143" s="142"/>
       <c r="D143" t="str" cm="1">
@@ -21946,7 +21940,7 @@
         <v>543</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144" s="143"/>
       <c r="D144" t="str" cm="1">
@@ -21959,7 +21953,7 @@
         <v>550</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145" s="144"/>
       <c r="D145" t="str" cm="1">
@@ -21972,7 +21966,7 @@
         <v>552</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146" s="145"/>
       <c r="D146" t="str" cm="1">
@@ -21998,7 +21992,7 @@
         <v>554</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="147"/>
       <c r="D148" t="str" cm="1">
@@ -22011,7 +22005,7 @@
         <v>561</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" s="148"/>
       <c r="D149" t="str" cm="1">
@@ -22024,7 +22018,7 @@
         <v>562</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="149"/>
       <c r="D150" t="str" cm="1">
@@ -22037,7 +22031,7 @@
         <v>563</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" s="150"/>
       <c r="D151" t="str" cm="1">
@@ -22050,7 +22044,7 @@
         <v>564</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" s="151"/>
       <c r="D152" t="str" cm="1">
@@ -22063,7 +22057,7 @@
         <v>580</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" s="152"/>
       <c r="D153" t="str" cm="1">
@@ -22076,7 +22070,7 @@
         <v>581</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" s="153"/>
       <c r="D154" t="str" cm="1">
@@ -22089,7 +22083,7 @@
         <v>597</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" s="154"/>
       <c r="D155" t="str" cm="1">
@@ -22102,7 +22096,7 @@
         <v>598</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" s="155"/>
       <c r="D156" t="str" cm="1">
@@ -22115,7 +22109,7 @@
         <v>600</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" s="156"/>
       <c r="D157" t="str" cm="1">
@@ -22128,7 +22122,7 @@
         <v>601</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" s="157"/>
       <c r="D158" t="str" cm="1">
@@ -22141,7 +22135,7 @@
         <v>602</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" s="158"/>
       <c r="D159" t="str" cm="1">
@@ -22154,7 +22148,7 @@
         <v>603</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" s="159"/>
       <c r="D160" t="str" cm="1">
@@ -22167,7 +22161,7 @@
         <v>604</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" s="160"/>
       <c r="D161" t="str" cm="1">
@@ -22180,7 +22174,7 @@
         <v>605</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" s="161"/>
       <c r="D162" t="str" cm="1">
@@ -22193,7 +22187,7 @@
         <v>606</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" s="162"/>
       <c r="D163" t="str" cm="1">
@@ -22206,7 +22200,7 @@
         <v>608</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" s="163"/>
       <c r="D164" t="str" cm="1">
@@ -22219,7 +22213,7 @@
         <v>610</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" s="164"/>
       <c r="D165" t="str" cm="1">
@@ -22232,7 +22226,7 @@
         <v>611</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" s="165"/>
       <c r="D166" t="str" cm="1">
@@ -22245,7 +22239,7 @@
         <v>612</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" s="166"/>
       <c r="D167" t="str" cm="1">
@@ -22258,7 +22252,7 @@
         <v>613</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" s="167"/>
       <c r="D168" t="str" cm="1">
@@ -22271,7 +22265,7 @@
         <v>632</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" s="168"/>
       <c r="D169" t="str" cm="1">
@@ -22284,7 +22278,7 @@
         <v>640</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" s="169"/>
       <c r="D170" t="str" cm="1">
@@ -22297,7 +22291,7 @@
         <v>642</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" s="170"/>
       <c r="D171" t="str" cm="1">
@@ -22310,7 +22304,7 @@
         <v>644</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" s="171"/>
       <c r="D172" t="str" cm="1">
@@ -22323,7 +22317,7 @@
         <v>645</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" s="172"/>
       <c r="D173" t="str" cm="1">
@@ -22336,7 +22330,7 @@
         <v>646</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" s="173"/>
       <c r="D174" t="str" cm="1">
@@ -22349,7 +22343,7 @@
         <v>647</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" s="174"/>
       <c r="D175" t="str" cm="1">
@@ -22362,7 +22356,7 @@
         <v>648</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" s="175"/>
       <c r="D176" t="str" cm="1">
@@ -22388,7 +22382,7 @@
         <v>676</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178" s="177"/>
       <c r="D178" t="str" cm="1">
@@ -22401,7 +22395,7 @@
         <v>677</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179" s="178"/>
       <c r="D179" t="str" cm="1">
@@ -22414,7 +22408,7 @@
         <v>680</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180" s="179"/>
       <c r="D180" t="str" cm="1">
@@ -22466,7 +22460,7 @@
         <v>702</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C184" s="183"/>
       <c r="D184" t="str" cm="1">
@@ -22479,7 +22473,7 @@
         <v>703</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C185" s="184"/>
       <c r="D185" t="str" cm="1">
@@ -22492,7 +22486,7 @@
         <v>704</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C186" s="185"/>
       <c r="D186" t="str" cm="1">
@@ -22505,7 +22499,7 @@
         <v>712</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C187" s="186"/>
       <c r="D187" t="str" cm="1">
@@ -22518,7 +22512,7 @@
         <v>718</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C188" s="187"/>
       <c r="D188" t="str" cm="1">
@@ -22531,7 +22525,7 @@
         <v>720</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C189" s="188"/>
       <c r="D189" t="str" cm="1">
@@ -22544,7 +22538,7 @@
         <v>721</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C190" s="189"/>
       <c r="D190" t="str" cm="1">
@@ -22557,7 +22551,7 @@
         <v>722</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C191" s="190"/>
       <c r="D191" t="str" cm="1">
@@ -22570,7 +22564,7 @@
         <v>725</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C192" s="191"/>
       <c r="D192" t="str" cm="1">
@@ -22583,7 +22577,7 @@
         <v>726</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C193" s="192"/>
       <c r="D193" t="str" cm="1">
@@ -22596,7 +22590,7 @@
         <v>727</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C194" s="193"/>
       <c r="D194" t="str" cm="1">
@@ -22609,7 +22603,7 @@
         <v>728</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C195" s="194"/>
       <c r="D195" t="str" cm="1">
@@ -22622,7 +22616,7 @@
         <v>729</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C196" s="195"/>
       <c r="D196" t="str" cm="1">
@@ -22635,7 +22629,7 @@
         <v>730</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C197" s="196"/>
       <c r="D197" t="str" cm="1">
@@ -22648,7 +22642,7 @@
         <v>731</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C198" s="197"/>
       <c r="D198" t="str" cm="1">
@@ -22661,7 +22655,7 @@
         <v>732</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C199" s="198"/>
       <c r="D199" t="str" cm="1">
@@ -22674,7 +22668,7 @@
         <v>733</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C200" s="199"/>
       <c r="D200" t="str" cm="1">
@@ -22687,7 +22681,7 @@
         <v>734</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C201" s="200"/>
       <c r="D201" t="str" cm="1">
@@ -22700,7 +22694,7 @@
         <v>738</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C202" s="201"/>
       <c r="D202" t="str" cm="1">
@@ -22713,7 +22707,7 @@
         <v>739</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C203" s="202"/>
       <c r="D203" t="str" cm="1">
@@ -22726,7 +22720,7 @@
         <v>740</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C204" s="203"/>
       <c r="D204" t="str" cm="1">
@@ -22739,7 +22733,7 @@
         <v>741</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C205" s="204"/>
       <c r="D205" t="str" cm="1">
@@ -22752,7 +22746,7 @@
         <v>742</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C206" s="205"/>
       <c r="D206" t="str" cm="1">
@@ -22765,7 +22759,7 @@
         <v>743</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C207" s="206"/>
       <c r="D207" t="str" cm="1">
@@ -22778,7 +22772,7 @@
         <v>744</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C208" s="207"/>
       <c r="D208" t="str" cm="1">
@@ -22791,7 +22785,7 @@
         <v>745</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C209" s="208"/>
       <c r="D209" t="str" cm="1">
@@ -22804,7 +22798,7 @@
         <v>746</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C210" s="209"/>
       <c r="D210" t="str" cm="1">
@@ -22817,7 +22811,7 @@
         <v>747</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C211" s="210"/>
       <c r="D211" t="str" cm="1">
@@ -22830,7 +22824,7 @@
         <v>754</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C212" s="211"/>
       <c r="D212" t="str" cm="1">
@@ -22843,7 +22837,7 @@
         <v>758</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C213" s="212"/>
       <c r="D213" t="str" cm="1">
@@ -22856,7 +22850,7 @@
         <v>760</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C214" s="213"/>
       <c r="D214" t="str" cm="1">
@@ -22869,7 +22863,7 @@
         <v>761</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C215" s="214"/>
       <c r="D215" t="str" cm="1">
@@ -22882,7 +22876,7 @@
         <v>762</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C216" s="215"/>
       <c r="D216" t="str" cm="1">
@@ -22895,7 +22889,7 @@
         <v>772</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C217" s="216"/>
       <c r="D217" t="str" cm="1">
@@ -22908,7 +22902,7 @@
         <v>775</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C218" s="217"/>
       <c r="D218" t="str" cm="1">
@@ -22921,7 +22915,7 @@
         <v>776</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C219" s="218"/>
       <c r="D219" t="str" cm="1">
@@ -22934,7 +22928,7 @@
         <v>777</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" s="219"/>
       <c r="D220" t="str" cm="1">
@@ -22947,7 +22941,7 @@
         <v>778</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C221" s="220"/>
       <c r="D221" t="str" cm="1">
@@ -22960,7 +22954,7 @@
         <v>779</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C222" s="221"/>
       <c r="D222" t="str" cm="1">
@@ -22973,7 +22967,7 @@
         <v>780</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C223" s="222"/>
       <c r="D223" t="str" cm="1">
@@ -22986,7 +22980,7 @@
         <v>781</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C224" s="223"/>
       <c r="D224" t="str" cm="1">
@@ -22999,7 +22993,7 @@
         <v>782</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C225" s="224"/>
       <c r="D225" t="str" cm="1">
@@ -23012,7 +23006,7 @@
         <v>783</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" s="225"/>
       <c r="D226" t="str" cm="1">
@@ -23025,7 +23019,7 @@
         <v>791</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C227" s="226"/>
       <c r="D227" t="str" cm="1">
@@ -23038,7 +23032,7 @@
         <v>792</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C228" s="227"/>
       <c r="D228" t="str" cm="1">
@@ -23051,7 +23045,7 @@
         <v>793</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C229" s="228"/>
       <c r="D229" t="str" cm="1">
@@ -23064,7 +23058,7 @@
         <v>794</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C230" s="229"/>
       <c r="D230" t="str" cm="1">
@@ -23077,7 +23071,7 @@
         <v>796</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C231" s="230"/>
       <c r="D231" t="str" cm="1">
@@ -23090,7 +23084,7 @@
         <v>797</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C232" s="231"/>
       <c r="D232" t="str" cm="1">
@@ -23103,7 +23097,7 @@
         <v>798</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C233" s="232"/>
       <c r="D233" t="str" cm="1">
@@ -23116,7 +23110,7 @@
         <v>799</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C234" s="233"/>
       <c r="D234" t="str" cm="1">
@@ -23129,7 +23123,7 @@
         <v>800</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C235" s="234"/>
       <c r="D235" t="str" cm="1">
@@ -23142,7 +23136,7 @@
         <v>801</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C236" s="235"/>
       <c r="D236" t="str" cm="1">
@@ -23155,7 +23149,7 @@
         <v>803</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C237" s="236"/>
       <c r="D237" t="str" cm="1">
@@ -23168,7 +23162,7 @@
         <v>806</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C238" s="237"/>
       <c r="D238" t="str" cm="1">
@@ -23181,7 +23175,7 @@
         <v>807</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C239" s="238"/>
       <c r="D239" t="str" cm="1">
@@ -23194,7 +23188,7 @@
         <v>809</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C240" s="239"/>
       <c r="D240" t="str" cm="1">
@@ -23220,7 +23214,7 @@
         <v>814</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C242" s="241"/>
       <c r="D242" t="str" cm="1">
@@ -23233,7 +23227,7 @@
         <v>815</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C243" s="242"/>
       <c r="D243" t="str" cm="1">
@@ -23246,7 +23240,7 @@
         <v>816</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C244" s="243"/>
       <c r="D244" t="str" cm="1">
@@ -23259,7 +23253,7 @@
         <v>817</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C245" s="244"/>
       <c r="D245" t="str" cm="1">
@@ -23272,7 +23266,7 @@
         <v>818</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C246" s="245"/>
       <c r="D246" t="str" cm="1">
@@ -23285,7 +23279,7 @@
         <v>819</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C247" s="246"/>
       <c r="D247" t="str" cm="1">
@@ -23298,7 +23292,7 @@
         <v>820</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C248" s="247"/>
       <c r="D248" t="str" cm="1">
@@ -23311,7 +23305,7 @@
         <v>822</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C249" s="248"/>
       <c r="D249" t="str" cm="1">
@@ -23337,7 +23331,7 @@
         <v>824</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C251" s="250"/>
       <c r="D251" t="str" cm="1">
@@ -23376,7 +23370,7 @@
         <v>827</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C254" s="253"/>
       <c r="D254" t="str" cm="1">
@@ -23389,7 +23383,7 @@
         <v>828</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C255" s="254"/>
       <c r="D255" t="str" cm="1">
@@ -23402,7 +23396,7 @@
         <v>829</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C256" s="255"/>
       <c r="D256" t="str" cm="1">
@@ -23415,7 +23409,7 @@
         <v>830</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="256"/>
       <c r="D257" t="str" cm="1">
@@ -23428,7 +23422,7 @@
         <v>831</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C258" s="257"/>
       <c r="D258" t="str" cm="1">
@@ -23441,7 +23435,7 @@
         <v>832</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C259" s="258"/>
       <c r="D259" t="str" cm="1">
@@ -23454,7 +23448,7 @@
         <v>833</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C260" s="259"/>
       <c r="D260" t="str" cm="1">
@@ -23467,7 +23461,7 @@
         <v>834</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="260"/>
       <c r="D261" t="str" cm="1">
@@ -23480,7 +23474,7 @@
         <v>838</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" s="261"/>
       <c r="D262" t="str" cm="1">
@@ -23493,7 +23487,7 @@
         <v>839</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C263" s="262"/>
       <c r="D263" t="str" cm="1">
@@ -23506,7 +23500,7 @@
         <v>840</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" s="263"/>
       <c r="D264" t="str" cm="1">
@@ -23519,7 +23513,7 @@
         <v>841</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" s="264"/>
       <c r="D265" t="str" cm="1">
@@ -23532,7 +23526,7 @@
         <v>842</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" s="265"/>
       <c r="D266" t="str" cm="1">
@@ -23545,7 +23539,7 @@
         <v>844</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" s="266"/>
       <c r="D267" t="str" cm="1">
@@ -23558,7 +23552,7 @@
         <v>868</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C268" s="267"/>
       <c r="D268" t="str" cm="1">
@@ -23571,7 +23565,7 @@
         <v>869</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C269" s="268"/>
       <c r="D269" t="str" cm="1">
@@ -23584,7 +23578,7 @@
         <v>890</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" s="269"/>
       <c r="D270" t="str" cm="1">
@@ -23597,7 +23591,7 @@
         <v>891</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C271" s="270"/>
       <c r="D271" t="str" cm="1">
@@ -23610,7 +23604,7 @@
         <v>892</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="271"/>
       <c r="D272" t="str" cm="1">
@@ -23623,7 +23617,7 @@
         <v>893</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C273" s="272"/>
       <c r="D273" t="str" cm="1">
@@ -23636,7 +23630,7 @@
         <v>894</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C274" s="273"/>
       <c r="D274" t="str" cm="1">
@@ -23649,7 +23643,7 @@
         <v>895</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C275" s="274"/>
       <c r="D275" t="str" cm="1">
@@ -23662,7 +23656,7 @@
         <v>898</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C276" s="275"/>
       <c r="D276" t="str" cm="1">
@@ -23675,7 +23669,7 @@
         <v>899</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C277" s="276"/>
       <c r="D277" t="str" cm="1">
@@ -23688,7 +23682,7 @@
         <v>900</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C278" s="277"/>
       <c r="D278" t="str" cm="1">
@@ -23701,7 +23695,7 @@
         <v>902</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C279" s="278"/>
       <c r="D279" t="str" cm="1">
@@ -23714,7 +23708,7 @@
         <v>904</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C280" s="279"/>
       <c r="D280" t="str" cm="1">
@@ -23727,7 +23721,7 @@
         <v>905</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C281" s="280"/>
       <c r="D281" t="str" cm="1">
@@ -23740,7 +23734,7 @@
         <v>906</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C282" s="281"/>
       <c r="D282" t="str" cm="1">
@@ -23753,7 +23747,7 @@
         <v>907</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C283" s="282"/>
       <c r="D283" t="str" cm="1">
@@ -23766,7 +23760,7 @@
         <v>909</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C284" s="283"/>
       <c r="D284" t="str" cm="1">
@@ -23779,7 +23773,7 @@
         <v>910</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C285" s="284"/>
       <c r="D285" t="str" cm="1">
@@ -23792,7 +23786,7 @@
         <v>911</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C286" s="285"/>
       <c r="D286" t="str" cm="1">
@@ -23805,7 +23799,7 @@
         <v>912</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C287" s="286"/>
       <c r="D287" t="str" cm="1">
@@ -23818,7 +23812,7 @@
         <v>913</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C288" s="287"/>
       <c r="D288" t="str" cm="1">
@@ -23831,7 +23825,7 @@
         <v>915</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C289" s="288"/>
       <c r="D289" t="str" cm="1">
@@ -23844,7 +23838,7 @@
         <v>917</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C290" s="289"/>
       <c r="D290" t="str" cm="1">
@@ -23857,7 +23851,7 @@
         <v>918</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C291" s="290"/>
       <c r="D291" t="str" cm="1">
@@ -23870,7 +23864,7 @@
         <v>919</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C292" s="291"/>
       <c r="D292" t="str" cm="1">
@@ -23883,7 +23877,7 @@
         <v>920</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C293" s="292"/>
       <c r="D293" t="str" cm="1">
@@ -23896,7 +23890,7 @@
         <v>921</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C294" s="293"/>
       <c r="D294" t="str" cm="1">
@@ -23909,7 +23903,7 @@
         <v>922</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C295" s="294"/>
       <c r="D295" t="str" cm="1">
@@ -23922,7 +23916,7 @@
         <v>924</v>
       </c>
       <c r="B296" s="295" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C296" s="296"/>
       <c r="D296" t="str" cm="1">
@@ -23935,7 +23929,7 @@
         <v>926</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C297" s="297"/>
       <c r="D297" t="str" cm="1">
@@ -23948,7 +23942,7 @@
         <v>927</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C298" s="298"/>
       <c r="D298" t="str" cm="1">
@@ -23961,7 +23955,7 @@
         <v>928</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C299" s="299"/>
       <c r="D299" t="str" cm="1">
@@ -23974,7 +23968,7 @@
         <v>930</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C300" s="300"/>
       <c r="D300" t="str" cm="1">
@@ -23987,7 +23981,7 @@
         <v>931</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C301" s="301"/>
       <c r="D301" t="str" cm="1">
@@ -24000,7 +23994,7 @@
         <v>932</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C302" s="302"/>
       <c r="D302" t="str" cm="1">
@@ -24013,7 +24007,7 @@
         <v>934</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C303" s="303"/>
       <c r="D303" t="str" cm="1">
@@ -24026,7 +24020,7 @@
         <v>935</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C304" s="304"/>
       <c r="D304" t="str" cm="1">
@@ -24039,7 +24033,7 @@
         <v>936</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C305" s="305"/>
       <c r="D305" t="str" cm="1">
@@ -24052,7 +24046,7 @@
         <v>937</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C306" s="306"/>
       <c r="D306" t="str" cm="1">
@@ -24065,7 +24059,7 @@
         <v>938</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C307" s="307"/>
       <c r="D307" t="str" cm="1">
@@ -24078,7 +24072,7 @@
         <v>939</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C308" s="308"/>
       <c r="D308" t="str" cm="1">
@@ -24091,7 +24085,7 @@
         <v>943</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C309" s="309"/>
       <c r="D309" t="str" cm="1">
@@ -24104,7 +24098,7 @@
         <v>945</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C310" s="310"/>
       <c r="D310" t="str" cm="1">
@@ -24117,7 +24111,7 @@
         <v>946</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C311" s="311"/>
       <c r="D311" t="str" cm="1">
@@ -24130,7 +24124,7 @@
         <v>947</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C312" s="312"/>
       <c r="D312" t="str" cm="1">
@@ -24143,7 +24137,7 @@
         <v>948</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C313" s="313"/>
       <c r="D313" t="str" cm="1">
@@ -24156,7 +24150,7 @@
         <v>950</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C314" s="314"/>
       <c r="D314" t="str" cm="1">
@@ -24169,7 +24163,7 @@
         <v>951</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C315" s="315"/>
       <c r="D315" t="str" cm="1">
@@ -24182,7 +24176,7 @@
         <v>954</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C316" s="316"/>
       <c r="D316" t="str" cm="1">
@@ -24195,7 +24189,7 @@
         <v>955</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C317" s="317"/>
       <c r="D317" t="str" cm="1">
@@ -24208,7 +24202,7 @@
         <v>956</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C318" s="318"/>
       <c r="D318" t="str" cm="1">
@@ -24221,7 +24215,7 @@
         <v>957</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C319" s="319"/>
       <c r="D319" t="str" cm="1">
@@ -24234,7 +24228,7 @@
         <v>958</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C320" s="320"/>
       <c r="D320" t="str" cm="1">
@@ -24247,7 +24241,7 @@
         <v>959</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C321" s="321"/>
       <c r="D321" t="str" cm="1">
@@ -24260,7 +24254,7 @@
         <v>961</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C322" s="322"/>
       <c r="D322" t="str" cm="1">
@@ -24273,7 +24267,7 @@
         <v>962</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C323" s="323"/>
       <c r="D323" t="str" cm="1">
@@ -24286,7 +24280,7 @@
         <v>963</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C324" s="324"/>
       <c r="D324" t="str" cm="1">
@@ -24299,7 +24293,7 @@
         <v>964</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C325" s="325"/>
       <c r="D325" t="str" cm="1">
@@ -24312,7 +24306,7 @@
         <v>966</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C326" s="326"/>
       <c r="D326" t="str" cm="1">
@@ -24325,7 +24319,7 @@
         <v>967</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C327" s="327"/>
       <c r="D327" t="str" cm="1">
@@ -24338,7 +24332,7 @@
         <v>970</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="328"/>
       <c r="D328" t="str" cm="1">
@@ -24351,7 +24345,7 @@
         <v>971</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="329"/>
       <c r="D329" t="str" cm="1">
@@ -24364,7 +24358,7 @@
         <v>972</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="330"/>
       <c r="D330" t="str" cm="1">
@@ -24377,7 +24371,7 @@
         <v>973</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="331"/>
       <c r="D331" t="str" cm="1">
@@ -24390,7 +24384,7 @@
         <v>975</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="332"/>
       <c r="D332" t="str" cm="1">
@@ -24403,7 +24397,7 @@
         <v>976</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C333" s="333"/>
       <c r="D333" t="str" cm="1">
@@ -24416,7 +24410,7 @@
         <v>977</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C334" s="334"/>
       <c r="D334" t="str" cm="1">
@@ -24429,7 +24423,7 @@
         <v>986</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C335" s="335"/>
       <c r="D335" t="str" cm="1">
@@ -24442,7 +24436,7 @@
         <v>987</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C336" s="336"/>
       <c r="D336" t="str" cm="1">
@@ -24455,7 +24449,7 @@
         <v>988</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C337" s="337"/>
       <c r="D337" t="str" cm="1">
@@ -24468,7 +24462,7 @@
         <v>989</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C338" s="338"/>
       <c r="D338" t="str" cm="1">
@@ -24481,7 +24475,7 @@
         <v>991</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C339" s="339"/>
       <c r="D339" t="str" cm="1">
@@ -24494,7 +24488,7 @@
         <v>992</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C340" s="340"/>
       <c r="D340" t="str" cm="1">
@@ -24507,7 +24501,7 @@
         <v>993</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C341" s="341"/>
       <c r="D341" t="str" cm="1">
@@ -24520,7 +24514,7 @@
         <v>995</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C342" s="342"/>
       <c r="D342" t="str" cm="1">
@@ -24533,7 +24527,7 @@
         <v>996</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C343" s="343"/>
       <c r="D343" t="str" cm="1">
@@ -24546,7 +24540,7 @@
         <v>3011</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C344" s="344"/>
       <c r="D344" t="str" cm="1">
@@ -24559,7 +24553,7 @@
         <v>3012</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C345" s="345"/>
       <c r="D345" t="str" cm="1">
@@ -24572,7 +24566,7 @@
         <v>3013</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C346" s="346"/>
       <c r="D346" t="str" cm="1">
@@ -24585,7 +24579,7 @@
         <v>3021</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C347" s="347"/>
       <c r="D347" t="str" cm="1">
@@ -24598,7 +24592,7 @@
         <v>3022</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C348" s="348"/>
       <c r="D348" t="str" cm="1">
@@ -24611,7 +24605,7 @@
         <v>3023</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C349" s="349"/>
       <c r="D349" t="str" cm="1">
@@ -24624,7 +24618,7 @@
         <v>3024</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C350" s="350"/>
       <c r="D350" t="str" cm="1">
@@ -24637,7 +24631,7 @@
         <v>3031</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C351" s="351"/>
       <c r="D351" t="str" cm="1">
@@ -24650,7 +24644,7 @@
         <v>3032</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C352" s="352"/>
       <c r="D352" t="str" cm="1">
@@ -24663,7 +24657,7 @@
         <v>3033</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C353" s="353"/>
       <c r="D353" t="str" cm="1">
@@ -24676,7 +24670,7 @@
         <v>3041</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C354" s="354"/>
       <c r="D354" t="str" cm="1">
@@ -24689,7 +24683,7 @@
         <v>3042</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C355" s="355"/>
       <c r="D355" t="str" cm="1">
@@ -24702,7 +24696,7 @@
         <v>3045</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C356" s="356"/>
       <c r="D356" t="str" cm="1">
@@ -24715,7 +24709,7 @@
         <v>3046</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C357" s="357"/>
       <c r="D357" t="str" cm="1">
@@ -24728,7 +24722,7 @@
         <v>3047</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C358" s="358"/>
       <c r="D358" t="str" cm="1">
@@ -24741,7 +24735,7 @@
         <v>3051</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C359" s="359"/>
       <c r="D359" t="str" cm="1">
@@ -24754,7 +24748,7 @@
         <v>3052</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C360" s="360"/>
       <c r="D360" t="str" cm="1">
@@ -24767,7 +24761,7 @@
         <v>3053</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C361" s="361"/>
       <c r="D361" t="str" cm="1">
@@ -24780,7 +24774,7 @@
         <v>3064</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C362" s="362"/>
       <c r="D362" t="str" cm="1">
@@ -24793,7 +24787,7 @@
         <v>3072</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C363" s="363"/>
       <c r="D363" t="str" cm="1">
@@ -24806,7 +24800,7 @@
         <v>3078</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C364" s="364"/>
       <c r="D364" t="str" cm="1">
@@ -24832,7 +24826,7 @@
         <v>3326</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C366" s="366"/>
       <c r="D366" t="str" cm="1">
@@ -24845,7 +24839,7 @@
         <v>3328</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C367" s="367"/>
       <c r="D367" t="str" cm="1">
@@ -24858,7 +24852,7 @@
         <v>3340</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C368" s="368"/>
       <c r="D368" t="str" cm="1">
@@ -24871,7 +24865,7 @@
         <v>3341</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C369" s="369"/>
       <c r="D369" t="str" cm="1">
@@ -24884,7 +24878,7 @@
         <v>3345</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C370" s="370"/>
       <c r="D370" t="str" cm="1">
@@ -24897,7 +24891,7 @@
         <v>3346</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C371" s="371"/>
       <c r="D371" t="str" cm="1">
@@ -24910,7 +24904,7 @@
         <v>3347</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C372" s="372"/>
       <c r="D372" t="str" cm="1">
@@ -24923,7 +24917,7 @@
         <v>3348</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C373" s="373"/>
       <c r="D373" t="str" cm="1">
@@ -24936,7 +24930,7 @@
         <v>3350</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C374" s="374"/>
       <c r="D374" t="str" cm="1">
@@ -24949,7 +24943,7 @@
         <v>3354</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C375" s="375"/>
       <c r="D375" t="str" cm="1">
@@ -24962,7 +24956,7 @@
         <v>3362</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C376" s="376"/>
       <c r="D376" t="str" cm="1">
@@ -24975,7 +24969,7 @@
         <v>3363</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C377" s="377"/>
       <c r="D377" t="str" cm="1">
@@ -24988,7 +24982,7 @@
         <v>3364</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C378" s="378"/>
       <c r="D378" t="str" cm="1">
@@ -25001,7 +24995,7 @@
         <v>3371</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C379" s="379"/>
       <c r="D379" t="str" cm="1">
@@ -25014,7 +25008,7 @@
         <v>3607</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C380" s="380"/>
       <c r="D380" t="str" cm="1">
@@ -25027,7 +25021,7 @@
         <v>3608</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C381" s="381"/>
       <c r="D381" t="str" cm="1">
@@ -25040,7 +25034,7 @@
         <v>3609</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C382" s="382"/>
       <c r="D382" t="str" cm="1">
@@ -25053,7 +25047,7 @@
         <v>3685</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C383" s="383"/>
       <c r="D383" t="str" cm="1">
@@ -25066,7 +25060,7 @@
         <v>3687</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C384" s="384"/>
       <c r="D384" t="str" cm="1">
@@ -25079,7 +25073,7 @@
         <v>3688</v>
       </c>
       <c r="B385" s="295" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C385" s="385"/>
       <c r="D385" t="str" cm="1">
@@ -25092,7 +25086,7 @@
         <v>3689</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C386" s="386"/>
       <c r="D386" t="str" cm="1">
@@ -25105,7 +25099,7 @@
         <v>3705</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C387" s="387"/>
       <c r="D387" t="str" cm="1">
@@ -25118,7 +25112,7 @@
         <v>3706</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C388" s="388"/>
       <c r="D388" t="str" cm="1">
@@ -25131,7 +25125,7 @@
         <v>3708</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C389" s="389"/>
       <c r="D389" t="str" cm="1">
@@ -25144,7 +25138,7 @@
         <v>3712</v>
       </c>
       <c r="B390" s="295" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C390" s="390"/>
       <c r="D390" t="str" cm="1">
@@ -25157,7 +25151,7 @@
         <v>3713</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C391" s="391"/>
       <c r="D391" t="str" cm="1">
@@ -25170,7 +25164,7 @@
         <v>3716</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C392" s="392"/>
       <c r="D392" t="str" cm="1">
@@ -25183,7 +25177,7 @@
         <v>3721</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C393" s="393"/>
       <c r="D393" t="str" cm="1">
@@ -25196,7 +25190,7 @@
         <v>3722</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C394" s="394"/>
       <c r="D394" t="str" cm="1">
@@ -25209,7 +25203,7 @@
         <v>3726</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C395" s="395"/>
       <c r="D395" t="str" cm="1">
@@ -25222,7 +25216,7 @@
         <v>3727</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C396" s="396"/>
       <c r="D396" t="str" cm="1">
@@ -25235,7 +25229,7 @@
         <v>3731</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C397" s="397"/>
       <c r="D397" t="str" cm="1">
@@ -25248,7 +25242,7 @@
         <v>3733</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C398" s="398"/>
       <c r="D398" t="str" cm="1">
@@ -25261,7 +25255,7 @@
         <v>3740</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C399" s="399"/>
       <c r="D399" t="str" cm="1">
@@ -25274,7 +25268,7 @@
         <v>3743</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C400" s="400"/>
       <c r="D400" t="str" cm="1">
@@ -25287,7 +25281,7 @@
         <v>3746</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C401" s="401"/>
       <c r="D401" t="str" cm="1">
@@ -25300,7 +25294,7 @@
         <v>3747</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C402" s="402"/>
       <c r="D402" t="str" cm="1">
@@ -25313,7 +25307,7 @@
         <v>3750</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C403" s="403"/>
       <c r="D403" t="str" cm="1">
@@ -25326,7 +25320,7 @@
         <v>3752</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C404" s="404"/>
       <c r="D404" t="str" cm="1">
@@ -25339,7 +25333,7 @@
         <v>3753</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C405" s="405"/>
       <c r="D405" t="str" cm="1">
@@ -25378,7 +25372,7 @@
         <v>3760</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C408" s="408"/>
       <c r="D408" t="str" cm="1">
@@ -25391,7 +25385,7 @@
         <v>3761</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C409" s="409"/>
       <c r="D409" t="str" cm="1">
@@ -25404,7 +25398,7 @@
         <v>3765</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C410" s="410"/>
       <c r="D410" t="str" cm="1">
@@ -25417,7 +25411,7 @@
         <v>3766</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C411" s="411"/>
       <c r="D411" t="str" cm="1">
@@ -25430,7 +25424,7 @@
         <v>3768</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C412" s="412"/>
       <c r="D412" t="str" cm="1">
@@ -25443,7 +25437,7 @@
         <v>3770</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C413" s="413"/>
       <c r="D413" t="str" cm="1">
@@ -25456,7 +25450,7 @@
         <v>3771</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C414" s="414"/>
       <c r="D414" t="str" cm="1">
@@ -25469,7 +25463,7 @@
         <v>3772</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C415" s="415"/>
       <c r="D415" t="str" cm="1">
@@ -25478,11 +25472,11 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>403</v>
+      <c r="A416" s="1">
+        <v>3773</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C416" s="416"/>
       <c r="D416" t="str" cm="1">
@@ -25495,7 +25489,7 @@
         <v>3774</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C417" s="417"/>
       <c r="D417" t="str" cm="1">
@@ -25508,7 +25502,7 @@
         <v>3776</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C418" s="418"/>
       <c r="D418" t="str" cm="1">
@@ -25521,7 +25515,7 @@
         <v>3777</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C419" s="419"/>
       <c r="D419" t="str" cm="1">
@@ -25534,7 +25528,7 @@
         <v>3778</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C420" s="420"/>
       <c r="D420" t="str" cm="1">
@@ -25547,7 +25541,7 @@
         <v>3779</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C421" s="421"/>
       <c r="D421" t="str" cm="1">
@@ -25560,7 +25554,7 @@
         <v>3781</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C422" s="422"/>
       <c r="D422" t="str" cm="1">
@@ -25573,7 +25567,7 @@
         <v>3782</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C423" s="423"/>
       <c r="D423" t="str" cm="1">
@@ -25586,7 +25580,7 @@
         <v>3787</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C424" s="424"/>
       <c r="D424" t="str" cm="1">
@@ -25599,7 +25593,7 @@
         <v>3790</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C425" s="425"/>
       <c r="D425" t="str" cm="1">
@@ -25612,7 +25606,7 @@
         <v>3799</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C426" s="426"/>
       <c r="D426" t="str" cm="1">
@@ -25625,7 +25619,7 @@
         <v>3801</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C427" s="427"/>
       <c r="D427" t="str" cm="1">
@@ -25638,7 +25632,7 @@
         <v>3802</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C428" s="428"/>
       <c r="D428" t="str" cm="1">
@@ -25651,7 +25645,7 @@
         <v>3803</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C429" s="429"/>
       <c r="D429" t="str" cm="1">
@@ -25664,7 +25658,7 @@
         <v>3804</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C430" s="430"/>
       <c r="D430" t="str" cm="1">
@@ -25677,7 +25671,7 @@
         <v>3805</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C431" s="431"/>
       <c r="D431" t="str" cm="1">
@@ -25690,7 +25684,7 @@
         <v>3806</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C432" s="432"/>
       <c r="D432" t="str" cm="1">
@@ -25703,7 +25697,7 @@
         <v>3807</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C433" s="433"/>
       <c r="D433" t="str" cm="1">
@@ -25716,7 +25710,7 @@
         <v>3808</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C434" s="434"/>
       <c r="D434" t="str" cm="1">
@@ -25729,7 +25723,7 @@
         <v>3809</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C435" s="435"/>
       <c r="D435" t="str" cm="1">
@@ -25742,7 +25736,7 @@
         <v>3810</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C436" s="436"/>
       <c r="D436" t="str" cm="1">
@@ -25755,7 +25749,7 @@
         <v>3811</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C437" s="437"/>
       <c r="D437" t="str" cm="1">
@@ -25768,7 +25762,7 @@
         <v>3812</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C438" s="438"/>
       <c r="D438" t="str" cm="1">
@@ -25781,7 +25775,7 @@
         <v>3813</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C439" s="439"/>
       <c r="D439" t="str" cm="1">
@@ -25794,7 +25788,7 @@
         <v>3814</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C440" s="440"/>
       <c r="D440" t="str" cm="1">
@@ -25807,7 +25801,7 @@
         <v>3815</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C441" s="441"/>
       <c r="D441" t="str" cm="1">
@@ -25820,7 +25814,7 @@
         <v>3816</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C442" s="442"/>
       <c r="D442" t="str" cm="1">
@@ -25833,7 +25827,7 @@
         <v>3817</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C443" s="443"/>
       <c r="D443" t="str" cm="1">
@@ -25846,7 +25840,7 @@
         <v>3818</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C444" s="444"/>
       <c r="D444" t="str" cm="1">
@@ -25859,7 +25853,7 @@
         <v>3819</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C445" s="445"/>
       <c r="D445" t="str" cm="1">
@@ -25872,7 +25866,7 @@
         <v>3820</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C446" s="446"/>
       <c r="D446" t="str" cm="1">
@@ -25885,7 +25879,7 @@
         <v>3821</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C447" s="447"/>
       <c r="D447" t="str" cm="1">
@@ -25898,7 +25892,7 @@
         <v>3822</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C448" s="448"/>
       <c r="D448" t="str" cm="1">
@@ -25911,7 +25905,7 @@
         <v>3823</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C449" s="449"/>
       <c r="D449" t="str" cm="1">
@@ -25924,7 +25918,7 @@
         <v>3824</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C450" s="450"/>
       <c r="D450" t="str" cm="1">
@@ -25937,7 +25931,7 @@
         <v>3825</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C451" s="451"/>
       <c r="D451" t="str" cm="1">
@@ -25950,7 +25944,7 @@
         <v>3826</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C452" s="452"/>
       <c r="D452" t="str" cm="1">
@@ -25963,7 +25957,7 @@
         <v>3827</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C453" s="453"/>
       <c r="D453" t="str" cm="1">
@@ -25976,7 +25970,7 @@
         <v>3828</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C454" s="454"/>
       <c r="D454" t="str" cm="1">
@@ -25989,7 +25983,7 @@
         <v>3829</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C455" s="455"/>
       <c r="D455" t="str" cm="1">
@@ -26002,7 +25996,7 @@
         <v>3830</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C456" s="456"/>
       <c r="D456" t="str" cm="1">
@@ -26015,7 +26009,7 @@
         <v>3831</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C457" s="457"/>
       <c r="D457" t="str" cm="1">
@@ -26028,7 +26022,7 @@
         <v>3832</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C458" s="458"/>
       <c r="D458" t="str" cm="1">
@@ -26041,7 +26035,7 @@
         <v>3833</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C459" s="459"/>
       <c r="D459" t="str" cm="1">
@@ -26054,7 +26048,7 @@
         <v>3834</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C460" s="460"/>
       <c r="D460" t="str" cm="1">
@@ -26067,7 +26061,7 @@
         <v>3835</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C461" s="461"/>
       <c r="D461" t="str" cm="1">
@@ -26080,7 +26074,7 @@
         <v>3836</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C462" s="462"/>
       <c r="D462" t="str" cm="1">
@@ -26093,7 +26087,7 @@
         <v>3837</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C463" s="463"/>
       <c r="D463" t="str" cm="1">
@@ -26106,7 +26100,7 @@
         <v>3838</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C464" s="464"/>
       <c r="D464" t="str" cm="1">
@@ -26119,7 +26113,7 @@
         <v>3839</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C465" s="465"/>
       <c r="D465" t="str" cm="1">
@@ -26132,7 +26126,7 @@
         <v>3840</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C466" s="466"/>
       <c r="D466" t="str" cm="1">
@@ -26145,7 +26139,7 @@
         <v>3841</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C467" s="467"/>
       <c r="D467" t="str" cm="1">
@@ -26158,7 +26152,7 @@
         <v>3842</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C468" s="468"/>
       <c r="D468" t="str" cm="1">
@@ -26171,7 +26165,7 @@
         <v>3843</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C469" s="469"/>
       <c r="D469" t="str" cm="1">
@@ -26184,7 +26178,7 @@
         <v>3844</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C470" s="470"/>
       <c r="D470" t="str" cm="1">
@@ -26197,7 +26191,7 @@
         <v>3845</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C471" s="471"/>
       <c r="D471" t="str" cm="1">
@@ -26210,7 +26204,7 @@
         <v>3846</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C472" s="472"/>
       <c r="D472" t="str" cm="1">
@@ -26223,7 +26217,7 @@
         <v>3847</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C473" s="473"/>
       <c r="D473" t="str" cm="1">
@@ -26236,7 +26230,7 @@
         <v>3848</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C474" s="474"/>
       <c r="D474" t="str" cm="1">
@@ -26249,7 +26243,7 @@
         <v>3849</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C475" s="475"/>
       <c r="D475" t="str" cm="1">
@@ -26262,7 +26256,7 @@
         <v>3850</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C476" s="476"/>
       <c r="D476" t="str" cm="1">
@@ -26275,7 +26269,7 @@
         <v>3851</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C477" s="477"/>
       <c r="D477" t="str" cm="1">
@@ -26288,7 +26282,7 @@
         <v>3852</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C478" s="478"/>
       <c r="D478" t="str" cm="1">
@@ -26301,7 +26295,7 @@
         <v>3853</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C479" s="479"/>
       <c r="D479" t="str" cm="1">
@@ -26314,7 +26308,7 @@
         <v>3854</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C480" s="480"/>
       <c r="D480" t="str" cm="1">
@@ -26327,7 +26321,7 @@
         <v>3855</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C481" s="481"/>
       <c r="D481" t="str" cm="1">
@@ -26340,7 +26334,7 @@
         <v>3856</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C482" s="482"/>
       <c r="D482" t="str" cm="1">
@@ -26353,7 +26347,7 @@
         <v>3857</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C483" s="483"/>
       <c r="D483" t="str" cm="1">
@@ -26366,7 +26360,7 @@
         <v>3858</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C484" s="484"/>
       <c r="D484" t="str" cm="1">
@@ -26379,7 +26373,7 @@
         <v>3859</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C485" s="485"/>
       <c r="D485" t="str" cm="1">
@@ -26392,7 +26386,7 @@
         <v>3860</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C486" s="486"/>
       <c r="D486" t="str" cm="1">
@@ -26405,7 +26399,7 @@
         <v>3861</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C487" s="487"/>
       <c r="D487" t="str" cm="1">
@@ -26418,7 +26412,7 @@
         <v>3862</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C488" s="488"/>
       <c r="D488" t="str" cm="1">
@@ -26431,7 +26425,7 @@
         <v>3863</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C489" s="489"/>
       <c r="D489" t="str" cm="1">
@@ -26444,7 +26438,7 @@
         <v>3864</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C490" s="490"/>
       <c r="D490" t="str" cm="1">
@@ -26457,7 +26451,7 @@
         <v>3865</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C491" s="491"/>
       <c r="D491" t="str" cm="1">
@@ -26470,7 +26464,7 @@
         <v>3866</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C492" s="492"/>
       <c r="D492" t="str" cm="1">
@@ -26509,7 +26503,7 @@
         <v>3882</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C495" s="262"/>
       <c r="D495" t="str" cm="1">
@@ -26522,7 +26516,7 @@
         <v>3883</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C496" s="190"/>
       <c r="D496" t="str" cm="1">
@@ -26535,7 +26529,7 @@
         <v>3884</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C497" s="142"/>
       <c r="D497" t="str" cm="1">
@@ -26561,7 +26555,7 @@
         <v>3886</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C499" s="383"/>
       <c r="D499" t="str" cm="1">
@@ -26587,7 +26581,7 @@
         <v>3888</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C501" s="399"/>
       <c r="D501" t="str" cm="1">
@@ -26613,7 +26607,7 @@
         <v>3890</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C503" s="411"/>
       <c r="D503" t="str" cm="1">
@@ -26626,7 +26620,7 @@
         <v>3891</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C504" s="342"/>
       <c r="D504" t="str" cm="1">
@@ -26639,7 +26633,7 @@
         <v>3892</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C505" s="203"/>
       <c r="D505" t="str" cm="1">
@@ -26652,7 +26646,7 @@
         <v>3893</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C506" s="143"/>
       <c r="D506" t="str" cm="1">
@@ -26665,7 +26659,7 @@
         <v>3894</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C507" s="282"/>
       <c r="D507" t="str" cm="1">
@@ -26678,7 +26672,7 @@
         <v>3895</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C508" s="173"/>
       <c r="D508" t="str" cm="1">
@@ -26688,10 +26682,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="493" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B509" s="494" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C509" s="497"/>
       <c r="D509" t="str" cm="1">
@@ -26701,10 +26695,10 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="493" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B510" s="494" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C510" s="43"/>
       <c r="D510" t="str" cm="1">
@@ -26714,10 +26708,10 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="493" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B511" s="494" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C511" s="45"/>
       <c r="D511" t="str" cm="1">
@@ -26727,10 +26721,10 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="493" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B512" s="494" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C512" s="46"/>
       <c r="D512" t="str" cm="1">
@@ -26740,10 +26734,10 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="493" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B513" s="494" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C513" s="59"/>
       <c r="D513" t="str" cm="1">
@@ -26753,10 +26747,10 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="493" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B514" s="494" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C514" s="64"/>
       <c r="D514" t="str" cm="1">
@@ -26766,10 +26760,10 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="493" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B515" s="494" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C515" s="70"/>
       <c r="D515" t="str" cm="1">
@@ -26779,10 +26773,10 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="493" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B516" s="494" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C516" s="74"/>
       <c r="D516" t="str" cm="1">
@@ -26792,10 +26786,10 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="493" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B517" s="494" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C517" s="78"/>
       <c r="D517" t="str" cm="1">
@@ -26805,10 +26799,10 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="493" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B518" s="494" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C518" s="79"/>
       <c r="D518" t="str" cm="1">
@@ -26818,10 +26812,10 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="493" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B519" s="494" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C519" s="83"/>
       <c r="D519" t="str" cm="1">
@@ -26831,10 +26825,10 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="493" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B520" s="494" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C520" s="88"/>
       <c r="D520" t="str" cm="1">
@@ -26844,10 +26838,10 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="493" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B521" s="494" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C521" s="112"/>
       <c r="D521" t="str" cm="1">
@@ -26857,10 +26851,10 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="493" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B522" s="494" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C522" s="118"/>
       <c r="D522" t="str" cm="1">
@@ -26870,10 +26864,10 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="493" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B523" s="494" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C523" s="178"/>
       <c r="D523" t="str" cm="1">
@@ -26883,10 +26877,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="493" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B524" s="494" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C524" s="180"/>
       <c r="D524" t="str" cm="1">
@@ -26896,10 +26890,10 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="493" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B525" s="494" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C525" s="184"/>
       <c r="D525" t="str" cm="1">
@@ -26909,10 +26903,10 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="493" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B526" s="494" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C526" s="187"/>
       <c r="D526" t="str" cm="1">
@@ -26922,10 +26916,10 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="493" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B527" s="494" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C527" s="209"/>
       <c r="D527" t="str" cm="1">
@@ -26935,10 +26929,10 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="493" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B528" s="494" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C528" s="210"/>
       <c r="D528" t="str" cm="1">
@@ -26948,10 +26942,10 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="493" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B529" s="494" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C529" s="242"/>
       <c r="D529" t="str" cm="1">
@@ -26961,10 +26955,10 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="493" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B530" s="494" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C530" s="245"/>
       <c r="D530" t="str" cm="1">
@@ -26974,10 +26968,10 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="493" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B531" s="494" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C531" s="251"/>
       <c r="D531" t="str" cm="1">
@@ -26987,10 +26981,10 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="493" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B532" s="494" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C532" s="275"/>
       <c r="D532" t="str" cm="1">
@@ -27000,10 +26994,10 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="493" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B533" s="494" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C533" s="326"/>
       <c r="D533" t="str" cm="1">
@@ -27013,10 +27007,10 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="493" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B534" s="494" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C534" s="327"/>
       <c r="D534" t="str" cm="1">
@@ -27026,10 +27020,10 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="493" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B535" s="494" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C535" s="383"/>
       <c r="D535" t="str" cm="1">
@@ -27039,10 +27033,10 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="493" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B536" s="494" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C536" s="498"/>
       <c r="D536" t="str" cm="1">
@@ -27052,10 +27046,10 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="493" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B537" s="494" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C537" s="499"/>
       <c r="D537" t="str" cm="1">
@@ -27065,10 +27059,10 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="493" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B538" s="494" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C538" s="500"/>
       <c r="D538" t="str" cm="1">
@@ -27078,10 +27072,10 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="493" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B539" s="494" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C539" s="501"/>
       <c r="D539" t="str" cm="1">
@@ -27091,10 +27085,10 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="493" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B540" s="494" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C540" s="502"/>
       <c r="D540" t="str" cm="1">
@@ -27104,10 +27098,10 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="493" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B541" s="494" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C541" s="503"/>
       <c r="D541" t="str" cm="1">
@@ -27117,10 +27111,10 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="493" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B542" s="494" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C542" s="504"/>
       <c r="D542" t="str" cm="1">
@@ -27130,10 +27124,10 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="493" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B543" s="494" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C543" s="505"/>
       <c r="D543" t="str" cm="1">
@@ -27143,10 +27137,10 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="493" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B544" s="494" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C544" s="506"/>
       <c r="D544" t="str" cm="1">
@@ -27156,10 +27150,10 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="493" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B545" s="494" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C545" s="507"/>
       <c r="D545" t="str" cm="1">
@@ -27169,10 +27163,10 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="493" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B546" s="494" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C546" s="508"/>
       <c r="D546" t="str" cm="1">
@@ -27182,10 +27176,10 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="493" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B547" s="494" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C547" s="509"/>
       <c r="D547" t="str" cm="1">
@@ -27195,10 +27189,10 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="493" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B548" s="494" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C548" s="510"/>
       <c r="D548" t="str" cm="1">
@@ -27208,10 +27202,10 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="493" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B549" s="494" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C549" s="511"/>
       <c r="D549" t="str" cm="1">
@@ -27221,10 +27215,10 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="493" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B550" s="494" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C550" s="512"/>
       <c r="D550" t="str" cm="1">
@@ -27234,10 +27228,10 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="493" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B551" s="494" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C551" s="513"/>
       <c r="D551" t="str" cm="1">
@@ -27247,10 +27241,10 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="493" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B552" s="494" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C552" s="514"/>
       <c r="D552" t="str" cm="1">
@@ -27260,10 +27254,10 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="493" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B553" s="494" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C553" s="515"/>
       <c r="D553" t="str" cm="1">
@@ -27276,7 +27270,7 @@
         <v>5282</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C554" s="194"/>
       <c r="D554" t="str" cm="1">
@@ -27289,7 +27283,7 @@
         <v>5283</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C555" s="7"/>
       <c r="D555" t="str" cm="1">
@@ -27299,10 +27293,10 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="493" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C556" s="5"/>
       <c r="D556" t="str" cm="1">
@@ -27312,10 +27306,10 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="493" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" t="str" cm="1">
@@ -27325,10 +27319,10 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="493" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C558" s="74"/>
       <c r="D558" t="str" cm="1">
@@ -27338,10 +27332,10 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="493" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C559" s="80"/>
       <c r="D559" t="str" cm="1">
@@ -27351,10 +27345,10 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="493" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C560" s="83"/>
       <c r="D560" t="str" cm="1">
@@ -27364,10 +27358,10 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="493" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C561" s="112"/>
       <c r="D561" t="str" cm="1">
@@ -27377,10 +27371,10 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="493" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C562" s="115"/>
       <c r="D562" t="str" cm="1">
@@ -27390,10 +27384,10 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="493" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C563" s="118"/>
       <c r="D563" t="str" cm="1">
@@ -27403,10 +27397,10 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="493" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C564" s="120"/>
       <c r="D564" t="str" cm="1">
@@ -27416,10 +27410,10 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="493" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C565" s="126"/>
       <c r="D565" t="str" cm="1">
@@ -27429,10 +27423,10 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="493" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C566" s="137"/>
       <c r="D566" t="str" cm="1">
@@ -27442,10 +27436,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="493" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C567" s="144"/>
       <c r="D567" t="str" cm="1">
@@ -27455,10 +27449,10 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="493" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C568" s="147"/>
       <c r="D568" t="str" cm="1">
@@ -27468,10 +27462,10 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="493" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C569" s="156"/>
       <c r="D569" t="str" cm="1">
@@ -27481,10 +27475,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="493" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C570" s="516"/>
       <c r="D570" t="str" cm="1">
@@ -27494,10 +27488,10 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="493" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C571" s="176"/>
       <c r="D571" t="str" cm="1">
@@ -27507,10 +27501,10 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="493" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C572" s="180"/>
       <c r="D572" t="str" cm="1">
@@ -27520,10 +27514,10 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="493" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C573" s="191"/>
       <c r="D573" t="str" cm="1">
@@ -27533,10 +27527,10 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="493" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C574" s="201"/>
       <c r="D574" t="str" cm="1">
@@ -27546,10 +27540,10 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="493" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C575" s="203"/>
       <c r="D575" t="str" cm="1">
@@ -27559,10 +27553,10 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="493" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C576" s="232"/>
       <c r="D576" t="str" cm="1">
@@ -27572,10 +27566,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="493" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C577" s="241"/>
       <c r="D577" t="str" cm="1">
@@ -27585,10 +27579,10 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="493" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C578" s="243"/>
       <c r="D578" t="str" cm="1">
@@ -27598,10 +27592,10 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="493" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C579" s="247"/>
       <c r="D579" t="str" cm="1">
@@ -27611,10 +27605,10 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="493" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C580" s="249"/>
       <c r="D580" t="str" cm="1">
@@ -27624,10 +27618,10 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="493" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C581" s="263"/>
       <c r="D581" t="str" cm="1">
@@ -27637,10 +27631,10 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="493" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C582" s="269"/>
       <c r="D582" t="str" cm="1">
@@ -27650,10 +27644,10 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="493" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C583" s="277"/>
       <c r="D583" t="str" cm="1">
@@ -27663,10 +27657,10 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="493" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C584" s="282"/>
       <c r="D584" t="str" cm="1">
@@ -27676,10 +27670,10 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="493" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C585" s="288"/>
       <c r="D585" t="str" cm="1">
@@ -27689,10 +27683,10 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="493" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C586" s="307"/>
       <c r="D586" t="str" cm="1">
@@ -27702,10 +27696,10 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="493" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C587" s="330"/>
       <c r="D587" t="str" cm="1">
@@ -27715,10 +27709,10 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="493" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C588" s="342"/>
       <c r="D588" t="str" cm="1">
@@ -27728,10 +27722,10 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="493" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C589" s="379"/>
       <c r="D589" t="str" cm="1">
@@ -27741,10 +27735,10 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="493" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C590" s="426"/>
       <c r="D590" t="str" cm="1">
@@ -27754,10 +27748,10 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="493" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B591" s="494" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C591" s="5"/>
       <c r="D591" t="str" cm="1">
@@ -27767,10 +27761,10 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="493" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C592" s="64"/>
       <c r="D592" t="str" cm="1">
@@ -27780,10 +27774,10 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="493" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B593" s="494" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C593" s="72"/>
       <c r="D593" t="str" cm="1">
@@ -27793,10 +27787,10 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="493" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B594" s="494" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C594" s="517"/>
       <c r="D594" t="str" cm="1">
@@ -27806,10 +27800,10 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="493" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B595" s="494" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C595" s="83"/>
       <c r="D595" t="str" cm="1">
@@ -27819,10 +27813,10 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="493" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B596" s="494" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C596" s="85"/>
       <c r="D596" t="str" cm="1">
@@ -27832,10 +27826,10 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="493" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B597" s="494" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C597" s="518"/>
       <c r="D597" t="str" cm="1">
@@ -27845,10 +27839,10 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="493" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B598" s="494" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C598" s="96"/>
       <c r="D598" t="str" cm="1">
@@ -27858,10 +27852,10 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="493" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B599" s="494" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C599" s="97"/>
       <c r="D599" t="str" cm="1">
@@ -27871,10 +27865,10 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="493" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B600" s="494" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C600" s="101"/>
       <c r="D600" t="str" cm="1">
@@ -27884,10 +27878,10 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="493" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B601" s="494" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C601" s="111"/>
       <c r="D601" t="str" cm="1">
@@ -27897,10 +27891,10 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="493" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B602" s="494" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C602" s="112"/>
       <c r="D602" t="str" cm="1">
@@ -27910,10 +27904,10 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="493" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B603" s="494" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C603" s="519"/>
       <c r="D603" t="str" cm="1">
@@ -27923,10 +27917,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="493" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B604" s="494" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C604" s="520"/>
       <c r="D604" t="str" cm="1">
@@ -27936,10 +27930,10 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="493" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B605" s="494" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C605" s="126"/>
       <c r="D605" t="str" cm="1">
@@ -27949,10 +27943,10 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="493" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B606" s="494" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C606" s="127"/>
       <c r="D606" t="str" cm="1">
@@ -27962,10 +27956,10 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="493" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B607" s="494" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C607" s="521"/>
       <c r="D607" t="str" cm="1">
@@ -27975,10 +27969,10 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="493" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B608" s="494" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C608" s="133"/>
       <c r="D608" t="str" cm="1">
@@ -27988,10 +27982,10 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="493" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B609" s="494" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C609" s="144"/>
       <c r="D609" t="str" cm="1">
@@ -28001,10 +27995,10 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="493" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B610" s="494" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C610" s="145"/>
       <c r="D610" t="str" cm="1">
@@ -28014,10 +28008,10 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="493" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B611" s="494" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C611" s="522"/>
       <c r="D611" t="str" cm="1">
@@ -28027,10 +28021,10 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="493" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B612" s="494" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C612" s="157"/>
       <c r="D612" t="str" cm="1">
@@ -28040,10 +28034,10 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="493" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B613" s="494" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C613" s="158"/>
       <c r="D613" t="str" cm="1">
@@ -28053,10 +28047,10 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="493" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B614" s="494" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C614" s="162"/>
       <c r="D614" t="str" cm="1">
@@ -28066,10 +28060,10 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="493" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B615" s="494" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C615" s="523"/>
       <c r="D615" t="str" cm="1">
@@ -28079,10 +28073,10 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="493" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B616" s="494" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C616" s="524"/>
       <c r="D616" t="str" cm="1">
@@ -28092,10 +28086,10 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="493" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B617" s="494" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C617" s="181"/>
       <c r="D617" t="str" cm="1">
@@ -28105,10 +28099,10 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="493" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C618" s="183"/>
       <c r="D618" t="str" cm="1">
@@ -28118,10 +28112,10 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="493" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C619" s="186"/>
       <c r="D619" t="str" cm="1">
@@ -28131,10 +28125,10 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="493" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C620" s="192"/>
       <c r="D620" t="str" cm="1">
@@ -28144,10 +28138,10 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="493" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B621" s="494" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C621" s="525"/>
       <c r="D621" t="str" cm="1">
@@ -28157,10 +28151,10 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="493" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B622" s="494" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C622" s="526"/>
       <c r="D622" t="str" cm="1">
@@ -28170,10 +28164,10 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="493" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B623" s="494" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C623" s="204"/>
       <c r="D623" t="str" cm="1">
@@ -28183,10 +28177,10 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="493" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C624" s="207"/>
       <c r="D624" t="str" cm="1">
@@ -28196,10 +28190,10 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="493" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C625" s="208"/>
       <c r="D625" t="str" cm="1">
@@ -28209,10 +28203,10 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="493" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B626" s="494" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C626" s="215"/>
       <c r="D626" t="str" cm="1">
@@ -28222,10 +28216,10 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="493" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C627" s="218"/>
       <c r="D627" t="str" cm="1">
@@ -28235,10 +28229,10 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="493" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B628" s="494" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C628" s="231"/>
       <c r="D628" t="str" cm="1">
@@ -28248,10 +28242,10 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="493" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B629" s="494" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C629" s="232"/>
       <c r="D629" t="str" cm="1">
@@ -28261,10 +28255,10 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="493" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B630" s="494" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C630" s="233"/>
       <c r="D630" t="str" cm="1">
@@ -28274,10 +28268,10 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="493" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B631" s="494" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C631" s="234"/>
       <c r="D631" t="str" cm="1">
@@ -28287,10 +28281,10 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="493" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B632" s="494" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C632" s="245"/>
       <c r="D632" t="str" cm="1">
@@ -28300,10 +28294,10 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="493" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B633" s="494" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C633" s="247"/>
       <c r="D633" t="str" cm="1">
@@ -28313,10 +28307,10 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="493" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B634" s="494" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C634" s="264"/>
       <c r="D634" t="str" cm="1">
@@ -28326,10 +28320,10 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="493" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B635" s="494" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C635" s="275"/>
       <c r="D635" t="str" cm="1">
@@ -28339,10 +28333,10 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="493" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B636" s="494" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C636" s="276"/>
       <c r="D636" t="str" cm="1">
@@ -28352,10 +28346,10 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="493" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B637" s="494" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C637" s="527"/>
       <c r="D637" t="str" cm="1">
@@ -28365,10 +28359,10 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="493" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B638" s="494" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C638" s="528"/>
       <c r="D638" t="str" cm="1">
@@ -28378,10 +28372,10 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="493" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B639" s="494" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C639" s="301"/>
       <c r="D639" t="str" cm="1">
@@ -28391,10 +28385,10 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="493" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B640" s="494" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C640" s="529"/>
       <c r="D640" t="str" cm="1">
@@ -28404,10 +28398,10 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="493" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B641" s="494" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C641" s="309"/>
       <c r="D641" t="str" cm="1">
@@ -28417,10 +28411,10 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="493" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B642" s="494" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C642" s="321"/>
       <c r="D642" t="str" cm="1">
@@ -28430,10 +28424,10 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="493" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B643" s="494" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C643" s="530"/>
       <c r="D643" t="str" cm="1">
@@ -28443,10 +28437,10 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="493" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B644" s="494" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C644" s="333"/>
       <c r="D644" t="str" cm="1">
@@ -28456,10 +28450,10 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="493" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B645" s="494" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C645" s="339"/>
       <c r="D645" t="str" cm="1">
@@ -28469,10 +28463,10 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="493" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B646" s="494" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C646" s="342"/>
       <c r="D646" t="str" cm="1">
@@ -28482,10 +28476,10 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="493" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B647" s="494" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C647" s="379"/>
       <c r="D647" t="str" cm="1">
@@ -28495,10 +28489,10 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="493" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B648" s="494" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C648" s="531"/>
       <c r="D648" t="str" cm="1">
@@ -28508,10 +28502,10 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="493" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B649" s="494" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C649" s="383"/>
       <c r="D649" t="str" cm="1">
@@ -28521,10 +28515,10 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="493" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B650" s="494" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C650" s="446"/>
       <c r="D650" t="str" cm="1">
@@ -28537,7 +28531,7 @@
         <v>5269</v>
       </c>
       <c r="B651" s="494" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C651" s="180"/>
       <c r="D651" t="str" cm="1">
@@ -28550,7 +28544,7 @@
         <v>5270</v>
       </c>
       <c r="B652" s="494" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C652" s="242"/>
       <c r="D652" t="str" cm="1">
@@ -28563,7 +28557,7 @@
         <v>5272</v>
       </c>
       <c r="B653" s="494" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D653" t="str" cm="1">
         <f t="array" ref="D653">FindColor(C653,"RGB")</f>
@@ -28575,7 +28569,7 @@
         <v>5279</v>
       </c>
       <c r="B654" s="494" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C654" s="70"/>
       <c r="D654" t="str" cm="1">
@@ -28588,7 +28582,7 @@
         <v>5282</v>
       </c>
       <c r="B655" s="494" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C655" s="499"/>
       <c r="D655" t="str" cm="1">
@@ -28601,7 +28595,7 @@
         <v>5283</v>
       </c>
       <c r="B656" s="494" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C656" s="59"/>
       <c r="D656" t="str" cm="1">
@@ -28614,7 +28608,7 @@
         <v>5284</v>
       </c>
       <c r="B657" s="494" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C657" s="503"/>
       <c r="D657" t="str" cm="1">
@@ -28627,7 +28621,7 @@
         <v>5287</v>
       </c>
       <c r="B658" s="494" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C658" s="79"/>
       <c r="D658" t="str" cm="1">
@@ -28640,7 +28634,7 @@
         <v>5288</v>
       </c>
       <c r="B659" s="494" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C659" s="78"/>
       <c r="D659" t="str" cm="1">
@@ -28653,7 +28647,7 @@
         <v>5289</v>
       </c>
       <c r="B660" s="494" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C660" s="500"/>
       <c r="D660" t="str" cm="1">
@@ -28666,7 +28660,7 @@
         <v>5290</v>
       </c>
       <c r="B661" s="494" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C661" s="501"/>
       <c r="D661" t="str" cm="1">
@@ -28679,7 +28673,7 @@
         <v>5290</v>
       </c>
       <c r="B662" s="494" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C662" s="532"/>
       <c r="D662" t="str" cm="1">
@@ -29093,7 +29087,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="494" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" s="494"/>
     </row>
@@ -29102,7 +29096,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="494" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C2" s="494"/>
     </row>
@@ -29111,7 +29105,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="494" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C3" s="494"/>
     </row>
@@ -29120,7 +29114,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="494" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C4" s="494"/>
     </row>
@@ -29129,7 +29123,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="494" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C5" s="494"/>
     </row>
@@ -29138,7 +29132,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="494" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C6" s="494"/>
     </row>
@@ -29147,7 +29141,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="494" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C7" s="494"/>
     </row>
@@ -29156,7 +29150,7 @@
         <v>92</v>
       </c>
       <c r="B8" s="494" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C8" s="494"/>
     </row>
@@ -29165,7 +29159,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="494" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C9" s="494"/>
     </row>
@@ -29174,7 +29168,7 @@
         <v>94</v>
       </c>
       <c r="B10" s="494" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C10" s="494"/>
     </row>
@@ -29183,7 +29177,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="494" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C11" s="494"/>
     </row>
@@ -29192,7 +29186,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="494" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C12" s="494"/>
     </row>
@@ -29201,7 +29195,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="494" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C13" s="494"/>
     </row>
@@ -29210,7 +29204,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="494" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C14" s="494"/>
     </row>
@@ -29219,7 +29213,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="494" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C15" s="494"/>
     </row>
@@ -29228,7 +29222,7 @@
         <v>115</v>
       </c>
       <c r="B16" s="494" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C16" s="494"/>
     </row>
@@ -29237,7 +29231,7 @@
         <v>121</v>
       </c>
       <c r="B17" s="494" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C17" s="494"/>
     </row>
@@ -29246,124 +29240,124 @@
         <v>125</v>
       </c>
       <c r="B18" s="494" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C18" s="494"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="493" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B19" s="494" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C19" s="495"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="493" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B20" s="494" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C20" s="494"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="493" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B21" s="494" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C21" s="496"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="493" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B22" s="494" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C22" s="496"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="493" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B23" s="494" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C23" s="494"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="493" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B24" s="494" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C24" s="496"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="493" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B25" s="494" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C25" s="496"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="493" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B26" s="494" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C26" s="496"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="493" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B27" s="494" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C27" s="496"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="493" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B28" s="494" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C28" s="496"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="493" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B29" s="494" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C29" s="496"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="493" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B30" s="494" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C30" s="496"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="493" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B31" s="494" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -29372,7 +29366,7 @@
         <v>4010</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C32" s="494"/>
     </row>
@@ -29381,7 +29375,7 @@
         <v>4015</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C33" s="494"/>
     </row>
@@ -29390,7 +29384,7 @@
         <v>4020</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C34" s="494"/>
     </row>
@@ -29399,7 +29393,7 @@
         <v>4025</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C35" s="494"/>
     </row>
@@ -29408,7 +29402,7 @@
         <v>4030</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C36" s="494"/>
     </row>
@@ -29417,7 +29411,7 @@
         <v>4040</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C37" s="494"/>
     </row>
@@ -29426,7 +29420,7 @@
         <v>4045</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C38" s="494"/>
     </row>
@@ -29435,7 +29429,7 @@
         <v>4050</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C39" s="494"/>
     </row>
@@ -29444,7 +29438,7 @@
         <v>4060</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C40" s="494"/>
     </row>
@@ -29453,7 +29447,7 @@
         <v>4065</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C41" s="494"/>
     </row>
@@ -29462,7 +29456,7 @@
         <v>4070</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C42" s="494"/>
     </row>
@@ -29471,7 +29465,7 @@
         <v>4075</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C43" s="494"/>
     </row>
@@ -29480,7 +29474,7 @@
         <v>4077</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C44" s="494"/>
     </row>
@@ -29489,7 +29483,7 @@
         <v>4080</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C45" s="494"/>
     </row>
@@ -29498,7 +29492,7 @@
         <v>4090</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C46" s="494"/>
     </row>
@@ -29507,7 +29501,7 @@
         <v>4100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C47" s="494"/>
     </row>
@@ -29516,7 +29510,7 @@
         <v>4110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C48" s="494"/>
     </row>
@@ -29525,7 +29519,7 @@
         <v>4120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C49" s="494"/>
     </row>
@@ -29534,7 +29528,7 @@
         <v>4124</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C50" s="494"/>
     </row>
@@ -29543,7 +29537,7 @@
         <v>4126</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C51" s="495"/>
     </row>
@@ -29552,7 +29546,7 @@
         <v>4128</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C52" s="494"/>
     </row>
@@ -29561,7 +29555,7 @@
         <v>4130</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C53" s="494"/>
     </row>
@@ -29570,7 +29564,7 @@
         <v>4140</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C54" s="494"/>
     </row>
@@ -29579,7 +29573,7 @@
         <v>4145</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C55" s="494"/>
     </row>
@@ -29588,7 +29582,7 @@
         <v>4150</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C56" s="494"/>
     </row>
@@ -29597,7 +29591,7 @@
         <v>4160</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C57" s="494"/>
     </row>
@@ -29606,7 +29600,7 @@
         <v>4170</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C58" s="494"/>
     </row>
@@ -29615,7 +29609,7 @@
         <v>4180</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C59" s="494"/>
     </row>
@@ -29624,7 +29618,7 @@
         <v>4190</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C60" s="494"/>
     </row>
@@ -29633,7 +29627,7 @@
         <v>4200</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C61" s="494"/>
     </row>
@@ -29642,7 +29636,7 @@
         <v>4210</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C62" s="494"/>
     </row>
@@ -29651,7 +29645,7 @@
         <v>4215</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C63" s="494"/>
     </row>
@@ -29660,7 +29654,7 @@
         <v>4220</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C64" s="494"/>
     </row>
@@ -29669,7 +29663,7 @@
         <v>4230</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C65" s="494"/>
     </row>
@@ -29678,7 +29672,7 @@
         <v>4235</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C66" s="494"/>
     </row>
@@ -29687,7 +29681,7 @@
         <v>4240</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C67" s="494"/>
     </row>
@@ -29696,7 +29690,7 @@
         <v>4500</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C68" s="494"/>
     </row>
@@ -29705,7 +29699,7 @@
         <v>4501</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C69" s="494"/>
     </row>
@@ -29714,7 +29708,7 @@
         <v>4502</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C70" s="495"/>
     </row>
@@ -29723,7 +29717,7 @@
         <v>4503</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C71" s="494"/>
     </row>
@@ -29732,7 +29726,7 @@
         <v>4504</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C72" s="494"/>
     </row>
@@ -29741,7 +29735,7 @@
         <v>4505</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C73" s="494"/>
     </row>
@@ -29750,7 +29744,7 @@
         <v>4506</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C74" s="494"/>
     </row>
@@ -29759,7 +29753,7 @@
         <v>4507</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C75" s="494"/>
     </row>
@@ -29768,7 +29762,7 @@
         <v>4508</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C76" s="494"/>
     </row>
@@ -29777,7 +29771,7 @@
         <v>4509</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C77" s="494"/>
     </row>
@@ -29786,7 +29780,7 @@
         <v>4510</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C78" s="494"/>
     </row>
@@ -29795,7 +29789,7 @@
         <v>4511</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C79" s="494"/>
     </row>
@@ -29804,7 +29798,7 @@
         <v>4512</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C80" s="494"/>
     </row>
@@ -29813,7 +29807,7 @@
         <v>4513</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C81" s="494"/>
     </row>
@@ -29822,7 +29816,7 @@
         <v>4514</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C82" s="494"/>
     </row>
@@ -29831,7 +29825,7 @@
         <v>4515</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C83" s="494"/>
     </row>
@@ -29840,7 +29834,7 @@
         <v>4516</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C84" s="495"/>
     </row>
@@ -29849,7 +29843,7 @@
         <v>4517</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C85" s="494"/>
     </row>
@@ -29858,7 +29852,7 @@
         <v>4518</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C86" s="494"/>
     </row>
@@ -29867,7 +29861,7 @@
         <v>4519</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C87" s="495"/>
     </row>
@@ -29876,7 +29870,7 @@
         <v>4520</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C88" s="495"/>
     </row>
@@ -29885,7 +29879,7 @@
         <v>4521</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C89" s="493"/>
     </row>
@@ -29894,7 +29888,7 @@
         <v>4522</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C90" s="493"/>
     </row>
@@ -29903,7 +29897,7 @@
         <v>4523</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C91" s="493"/>
     </row>
@@ -29912,7 +29906,7 @@
         <v>48</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C92" s="495"/>
     </row>
@@ -29921,7 +29915,7 @@
         <v>51</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C93" s="495"/>
     </row>
@@ -29930,7 +29924,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C94" s="495"/>
     </row>
@@ -29939,7 +29933,7 @@
         <v>53</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C95" s="495"/>
     </row>
@@ -29948,7 +29942,7 @@
         <v>57</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C96" s="495"/>
     </row>
@@ -29957,7 +29951,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C97" s="496"/>
     </row>
@@ -29966,7 +29960,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C98" s="496"/>
     </row>
@@ -29975,7 +29969,7 @@
         <v>67</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C99" s="496"/>
     </row>
@@ -29984,7 +29978,7 @@
         <v>69</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C100" s="495"/>
     </row>
@@ -29993,7 +29987,7 @@
         <v>75</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C101" s="496"/>
     </row>
@@ -30002,7 +29996,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C102" s="495"/>
     </row>
@@ -30011,7 +30005,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C103" s="496"/>
     </row>
@@ -30020,7 +30014,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C104" s="495"/>
     </row>
@@ -30029,7 +30023,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C105" s="496"/>
     </row>
@@ -30038,7 +30032,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C106" s="495"/>
     </row>
@@ -30047,7 +30041,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C107" s="496"/>
     </row>
@@ -30056,7 +30050,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C108" s="495"/>
     </row>
@@ -30065,7 +30059,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C109" s="496"/>
     </row>
@@ -30074,7 +30068,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C110" s="496"/>
     </row>
@@ -30083,7 +30077,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C111" s="495"/>
     </row>
@@ -30092,7 +30086,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C112" s="496"/>
     </row>
@@ -30101,7 +30095,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C113" s="495"/>
     </row>
@@ -30110,7 +30104,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C114" s="495"/>
     </row>
@@ -30119,7 +30113,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C115" s="495"/>
     </row>
@@ -30128,7 +30122,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C116" s="496"/>
     </row>
@@ -30137,7 +30131,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C117" s="495"/>
     </row>
@@ -30146,7 +30140,7 @@
         <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C118" s="496"/>
     </row>
@@ -30155,7 +30149,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C119" s="496"/>
     </row>
@@ -30164,7 +30158,7 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C120" s="496"/>
     </row>
@@ -30173,7 +30167,7 @@
         <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C121" s="495"/>
     </row>
@@ -30182,7 +30176,7 @@
         <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C122" s="496"/>
     </row>
@@ -30191,7 +30185,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C123" s="495"/>
     </row>
@@ -30200,7 +30194,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C124" s="496"/>
     </row>
@@ -30209,7 +30203,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C125" s="496"/>
     </row>
@@ -30218,7 +30212,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C126" s="496"/>
     </row>
@@ -30227,7 +30221,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C127" s="495"/>
     </row>
@@ -30236,7 +30230,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C128" s="496"/>
     </row>
@@ -30245,7 +30239,7 @@
         <v>4000</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C129" s="495"/>
     </row>
@@ -30254,7 +30248,7 @@
         <v>4017</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C130" s="493"/>
     </row>
@@ -30263,7 +30257,7 @@
         <v>4022</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C131" s="493"/>
     </row>
@@ -30272,7 +30266,7 @@
         <v>4042</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C132" s="493"/>
     </row>
@@ -30281,7 +30275,7 @@
         <v>4047</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C133" s="493"/>
     </row>
@@ -30290,7 +30284,7 @@
         <v>4066</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C134" s="493"/>
     </row>
@@ -30299,7 +30293,7 @@
         <v>4068</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C135" s="493"/>
     </row>
@@ -30308,7 +30302,7 @@
         <v>4069</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C136" s="493"/>
     </row>
@@ -30317,7 +30311,7 @@
         <v>4072</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C137" s="493"/>
     </row>
@@ -30326,7 +30320,7 @@
         <v>4073</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C138" s="493"/>
     </row>
@@ -30335,7 +30329,7 @@
         <v>4095</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C139" s="493"/>
     </row>
@@ -30344,7 +30338,7 @@
         <v>4122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C140" s="493"/>
     </row>
@@ -30353,7 +30347,7 @@
         <v>4129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C141" s="495"/>
     </row>
@@ -30362,7 +30356,7 @@
         <v>4135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C142" s="495"/>
     </row>
@@ -30371,7 +30365,7 @@
         <v>4205</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C143" s="495"/>
     </row>
@@ -30380,7 +30374,7 @@
         <v>4211</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C144" s="495"/>
     </row>
@@ -30389,7 +30383,7 @@
         <v>4212</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C145" s="495"/>
     </row>
@@ -30398,7 +30392,7 @@
         <v>4214</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C146" s="495"/>
     </row>
@@ -30407,7 +30401,7 @@
         <v>4237</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C147" s="495"/>
     </row>
@@ -30416,7 +30410,7 @@
         <v>4245</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C148" s="495"/>
     </row>
@@ -30425,7 +30419,7 @@
         <v>4250</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C149" s="495"/>
     </row>
@@ -30434,7 +30428,7 @@
         <v>4255</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C150" s="495"/>
     </row>
@@ -30443,7 +30437,7 @@
         <v>4260</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C151" s="495"/>
     </row>
@@ -30452,7 +30446,7 @@
         <v>4265</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C152" s="495"/>
     </row>
@@ -30731,7 +30725,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
